--- a/ExportXlsxTool/Config/ExportSetting.xlsx
+++ b/ExportXlsxTool/Config/ExportSetting.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE28782E-4716-4747-8311-D8C6D846A076}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C93E8-9600-4890-99DD-09B10D355EC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StructSheet" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -68,71 +68,371 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>物品数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId;itemNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品ID;物品数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTStoryNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧本数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>star;num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级;数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTVector2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D坐标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x;y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float;float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>要忽略的表名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺人技能组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id:lv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能组ID:开放等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTActorStory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺人擅长剧本风格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTActorSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTActorFeature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTActorCharacter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺人擅长剧本元素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺人擅长剧本角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTRandomInterval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机区间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值:最大值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>num1;num2</t>
+  </si>
+  <si>
+    <t>DTShootType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧本拍摄类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoottypeid:rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍摄类型:数值加成百分比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTStoryEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧本属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyeffect:rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影属性类型:数值加成百分比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑类型:建筑等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type:level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTBuildingReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>DTItemNum</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>物品数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemId;itemNum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>BuildProperty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>story;lv;property</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;int;int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧本风格:擅长等级:加成属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature;lv;property</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧本元素:擅长等级:加成属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>character;lv;property</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色类型:擅长等级:加成属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局表数组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int;int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品ID;物品数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTStoryNum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧本数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>star;num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>星级;数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTVector2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D坐标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x;y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float;float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>要忽略的表名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>City</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值1；数值2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTlValue2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTlValue3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1:v2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1:v2:v3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;int:int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值1；数值2;数值3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTDrop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x:y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID:每秒掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTPerformActoin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺人动作表演</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺人说话表演</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTPerformSpeak</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作ID：持续时间(秒)：权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字ID：持续时间：权重</t>
+  </si>
+  <si>
+    <t>DTParts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼名称:配件名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型骨骼配件挂点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTProficiency</t>
+  </si>
+  <si>
+    <t>熟练度加成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型：加成值</t>
+  </si>
+  <si>
+    <t>DTDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y:m:d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:int:int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年:月:日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTDateTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y:m:d:h:mm:s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:int:int:int:int:int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年:月:日:时:分:秒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>h:mm:s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时:分:秒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,6 +552,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,19 +839,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.875" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="33.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -600,54 +906,377 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -658,11 +1287,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351D720C-B590-4E59-BE47-223D5F1EC241}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,26 +1306,29 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
+      <c r="A4" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
